--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\制作\Unity\Git\GFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\制作\Unity\Git\GFF\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -718,6 +718,9 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
@@ -744,6 +747,9 @@
       <c r="J7" s="2">
         <v>2</v>
       </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,6 +763,9 @@
       </c>
       <c r="J8" s="2">
         <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -162,13 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライトが消える</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>後ろの友人が消える</t>
     <rPh sb="0" eb="1">
       <t>ウシ</t>
@@ -215,6 +209,73 @@
     <t>ゲームオーバー判定</t>
     <rPh sb="7" eb="9">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐中電灯の光が消える</t>
+    <rPh sb="0" eb="4">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐中電灯</t>
+    <rPh sb="0" eb="4">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街灯の作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街灯設置</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正必要あり</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作途中</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,13 +308,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +364,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -613,15 +711,23 @@
     <col min="11" max="12" width="8.6640625" style="2"/>
     <col min="13" max="13" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="15" max="17" width="8.6640625" style="2"/>
+    <col min="18" max="18" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,8 +740,12 @@
       <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -672,8 +782,12 @@
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -699,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -712,13 +826,13 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>5</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -728,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -741,13 +855,13 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -757,18 +871,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I8" s="2" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
@@ -776,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
@@ -784,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
@@ -792,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="2" t="s">
         <v>18</v>
       </c>
@@ -800,51 +914,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="J17" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
         <v>4</v>
       </c>
     </row>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -316,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +382,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +704,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -706,7 +715,7 @@
     <col min="5" max="5" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.6640625" style="2"/>
-    <col min="9" max="9" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="2"/>
     <col min="13" max="13" width="20.25" style="2" bestFit="1" customWidth="1"/>
@@ -907,11 +916,14 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -926,6 +938,9 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
@@ -934,6 +949,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
@@ -942,6 +960,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +970,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>21</v>
       </c>
@@ -957,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
@@ -965,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="2" t="s">
         <v>22</v>
       </c>
@@ -973,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="6" t="s">
         <v>26</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="5" t="s">
         <v>27</v>
       </c>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -276,6 +276,38 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアをどうするか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件を変更するように</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置はいけるが
+光がうまくいかない</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒカリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +347,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +380,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,8 +417,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,60 +737,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="2"/>
-    <col min="9" max="9" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" style="2"/>
-    <col min="13" max="13" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.6640625" style="2"/>
-    <col min="18" max="18" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="2"/>
+    <col min="3" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="2"/>
+    <col min="11" max="11" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2"/>
+    <col min="14" max="14" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="8.6640625" style="2"/>
+    <col min="22" max="22" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" s="3"/>
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,259 +802,289 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I8" s="6" t="s">
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="L8" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I9" s="2" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="2" t="s">
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="2" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I12" s="7" t="s">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="7">
+      <c r="L12" s="5">
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="M12" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I13" s="6" t="s">
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="6">
+      <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="H14" s="2">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="H15" s="2">
+      <c r="M14" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H17" s="2">
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
         <v>4</v>
       </c>
-      <c r="I17" s="2" t="s">
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18" s="2" t="s">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19" s="2" t="s">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20" s="6" t="s">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I21" s="5" t="s">
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="5">
+      <c r="L21" s="5">
         <v>2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>4</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -308,6 +308,26 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消去するコードで問題があるため
+後で修正を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -389,13 +409,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,14 +660,104 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -754,7 +1090,7 @@
     <col min="11" max="11" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" style="2"/>
-    <col min="14" max="14" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="2"/>
     <col min="16" max="16" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -768,77 +1104,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="U2" s="3"/>
       <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="P3" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="U4" s="5"/>
@@ -847,166 +1195,198 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="L5" s="16">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
+      <c r="M6" s="21">
         <v>5</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="Q6" s="16">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="29">
         <v>2</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="P7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="29">
         <v>2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="22">
         <v>0</v>
       </c>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="16">
         <v>3</v>
       </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K12" s="5" t="s">
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="29">
         <v>3</v>
       </c>
-      <c r="M12" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
+      <c r="M12" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="29">
         <v>2</v>
       </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="30">
         <v>5</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="23">
         <v>3.5</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1014,80 +1394,96 @@
       <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="16">
         <v>5</v>
       </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="L16" s="31">
+        <v>1</v>
+      </c>
+      <c r="M16" s="24">
         <v>4</v>
       </c>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="16">
         <v>8</v>
       </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="16">
         <v>4</v>
       </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="16">
         <v>4</v>
       </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="10:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="K21" s="5" t="s">
+      <c r="L20" s="29">
+        <v>1</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="10:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K21" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="32">
         <v>2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="26">
         <v>4</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="27" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="P3:S3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -288,16 +288,6 @@
   </si>
   <si>
     <t>クリアをどうするか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件を変更するように</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -308,26 +298,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒカリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消去するコードで問題があるため
-後で修正を行う</t>
-    <rPh sb="0" eb="2">
-      <t>ショウキョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,15 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,9 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,9 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +709,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1111,40 +1072,40 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="F3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="12" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="F3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="P3" s="12" t="s">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="P3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
       <c r="U3" s="4"/>
       <c r="V3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1153,10 +1114,10 @@
       <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1165,10 +1126,10 @@
       <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -1177,10 +1138,10 @@
       <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="10" t="s">
@@ -1195,180 +1156,178 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>1</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="13">
         <v>1</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="28">
-        <v>1</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="L6" s="24">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
         <v>5</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="13">
         <v>1</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="25">
         <v>2</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="19">
         <v>1</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="14">
         <v>1</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="25">
         <v>2</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="19">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <v>1</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <v>3</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="13">
         <v>1</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="25">
         <v>3</v>
       </c>
-      <c r="M12" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="M12" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="25">
         <v>2</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="19">
         <v>1</v>
       </c>
       <c r="N13" s="7"/>
@@ -1377,27 +1336,25 @@
       <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>5</v>
       </c>
-      <c r="M14" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="M14" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="13">
         <v>5</v>
       </c>
       <c r="M15" s="6"/>
@@ -1407,13 +1364,13 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="31">
-        <v>1</v>
-      </c>
-      <c r="M16" s="24">
+      <c r="L16" s="26">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
         <v>4</v>
       </c>
       <c r="N16" s="7"/>
@@ -1422,59 +1379,59 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="13">
         <v>8</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="13">
         <v>4</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="13">
         <v>4</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="29">
-        <v>1</v>
-      </c>
-      <c r="M20" s="22">
+      <c r="L20" s="25">
+        <v>1</v>
+      </c>
+      <c r="M20" s="19">
         <v>1</v>
       </c>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="10:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="27">
         <v>2</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="22">
         <v>4</v>
       </c>
-      <c r="N21" s="27" t="s">
-        <v>34</v>
+      <c r="N21" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1351,13 +1351,15 @@
       <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="25">
         <v>5</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="19">
+        <v>4</v>
+      </c>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1381,13 +1381,15 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="25">
         <v>8</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="19">
+        <v>1.5</v>
+      </c>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,30 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的に考えよう</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェード関係</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード中</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1034,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1172,14 +1196,14 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="K5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+      <c r="K5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="12">
+        <v>5</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="P5" s="16" t="s">
         <v>8</v>
       </c>
@@ -1191,33 +1215,29 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="F6" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G6" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="K6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="24">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="K6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
       <c r="P6" s="16" t="s">
         <v>9</v>
       </c>
@@ -1228,32 +1248,34 @@
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="25">
-        <v>2</v>
-      </c>
-      <c r="M7" s="19">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7"/>
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1263,44 +1285,62 @@
       <c r="R7" s="8"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
       <c r="K8" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="25">
         <v>2</v>
       </c>
       <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="13">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K10" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L10" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K11" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
@@ -1309,41 +1349,39 @@
       <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="25">
-        <v>3</v>
-      </c>
-      <c r="M12" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="N12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K13" s="29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L13" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="19">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J14" s="2">
         <v>3</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" s="19">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7"/>
     </row>
@@ -1352,13 +1390,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L15" s="25">
         <v>5</v>
       </c>
       <c r="M15" s="19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N15" s="7"/>
     </row>
@@ -1366,13 +1404,13 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="26">
-        <v>1</v>
-      </c>
-      <c r="M16" s="20">
+      <c r="K16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="25">
+        <v>5</v>
+      </c>
+      <c r="M16" s="19">
         <v>4</v>
       </c>
       <c r="N16" s="7"/>
@@ -1381,60 +1419,76 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="26">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L18" s="25">
         <v>8</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M18" s="19">
         <v>1.5</v>
       </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K18" s="16" t="s">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L19" s="25">
         <v>4</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K19" s="16" t="s">
+      <c r="M19" s="19">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L20" s="13">
         <v>4</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20" s="29" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="25">
-        <v>1</v>
-      </c>
-      <c r="M20" s="19">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="10:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="K21" s="31" t="s">
+      <c r="L21" s="25">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="10:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L22" s="27">
         <v>2</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M22" s="22">
         <v>4</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N22" s="23" t="s">
         <v>33</v>
       </c>
     </row>

--- a/資料/マヨナカノ＿タスク.xlsx
+++ b/資料/マヨナカノ＿タスク.xlsx
@@ -302,16 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>具体的に考えよう</t>
-    <rPh sb="0" eb="3">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フェード関係</t>
     <rPh sb="4" eb="6">
       <t>カンケイ</t>
@@ -322,6 +312,20 @@
     <t>ロード中</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定は取れているがいい
+方法があるかな？</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +746,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1074,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1197,7 +1210,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="K5" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="12">
         <v>5</v>
@@ -1215,7 +1228,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="13">
         <v>3</v>
@@ -1223,7 +1236,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="F6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="13">
         <v>4</v>
@@ -1346,9 +1359,6 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J12" s="2">
-        <v>2</v>
-      </c>
       <c r="K12" s="16" t="s">
         <v>17</v>
       </c>
@@ -1359,6 +1369,9 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
       <c r="K13" s="29" t="s">
         <v>18</v>
       </c>
@@ -1454,16 +1467,18 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20" s="16" t="s">
+    <row r="20" spans="10:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="37">
         <v>4</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7" t="s">
-        <v>34</v>
+      <c r="M20" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:14" x14ac:dyDescent="0.55000000000000004">
